--- a/artfynd/A 25117-2025 artfynd.xlsx
+++ b/artfynd/A 25117-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,6 +803,363 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131107108</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>SÖ Svarttjärnen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>600258</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6952256</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2025_0061</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Erik Lagerin</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131107106</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>SÖ Svarttjärnen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>600259</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6952247</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2025_0063</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Gammalt födosök av spillkråka</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131107103</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8440</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>SÖ Svarttjärnen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>600292</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6952283</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2025_0066</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>13:57</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>13:57</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Erik Lagerin</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
